--- a/medicine/Mort/Cimetière_Raspail/Cimetière_Raspail.xlsx
+++ b/medicine/Mort/Cimetière_Raspail/Cimetière_Raspail.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Raspail</t>
+          <t>Cimetière_Raspail</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière Raspail, couramment appelé nouveau cimetière, est un cimetière se trouvant à Bagnolet[1]. C'est l'un des deux cimetières de la commune, avec le cimetière Pasteur[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière Raspail, couramment appelé nouveau cimetière, est un cimetière se trouvant à Bagnolet. C'est l'un des deux cimetières de la commune, avec le cimetière Pasteur.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Raspail</t>
+          <t>Cimetière_Raspail</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'entrée principale se trouve à l'angle de la rue Louise-Michel et de l'avenue Raspail.
 Comme l'avenue éponyme, il tient son nom du chimiste, médecin et homme politique François-Vincent Raspail (1794-1878).
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Raspail</t>
+          <t>Cimetière_Raspail</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La question de l'agrandissement de l'ancien cimetière s'est posée à partir de 1902[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La question de l'agrandissement de l'ancien cimetière s'est posée à partir de 1902.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Raspail</t>
+          <t>Cimetière_Raspail</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Daniel Mongeau, homme politique[4].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Daniel Mongeau, homme politique.</t>
         </is>
       </c>
     </row>
